--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.1536923682547</v>
+        <v>684.7655026223753</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.4135470184174</v>
+        <v>936.926370409815</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.3424997240647</v>
+        <v>847.5074326023214</v>
       </c>
       <c r="AD2" t="n">
-        <v>636153.6923682548</v>
+        <v>684765.5026223753</v>
       </c>
       <c r="AE2" t="n">
-        <v>870413.5470184174</v>
+        <v>936926.370409815</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08614731332713e-06</v>
+        <v>3.859918713123447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.284375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>787342.4997240647</v>
+        <v>847507.4326023214</v>
       </c>
     </row>
     <row r="3">
@@ -2258,28 +2258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.8007709178969</v>
+        <v>232.191972145253</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.3221822927368</v>
+        <v>317.695299875842</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.1868722634907</v>
+        <v>287.3749063439396</v>
       </c>
       <c r="AD3" t="n">
-        <v>207800.7709178969</v>
+        <v>232191.972145253</v>
       </c>
       <c r="AE3" t="n">
-        <v>284322.1822927368</v>
+        <v>317695.2998758419</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.919768682642424e-06</v>
+        <v>7.252598314889084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.877083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>257186.8722634907</v>
+        <v>287374.9063439396</v>
       </c>
     </row>
     <row r="4">
@@ -2364,28 +2364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.3024164279853</v>
+        <v>196.5230254547491</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.7517676027921</v>
+        <v>268.8914734110504</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.2519497825338</v>
+        <v>243.2288485803317</v>
       </c>
       <c r="AD4" t="n">
-        <v>172302.4164279853</v>
+        <v>196523.0254547491</v>
       </c>
       <c r="AE4" t="n">
-        <v>235751.7676027921</v>
+        <v>268891.4734110504</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.356254889738562e-06</v>
+        <v>8.060212076404143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.488541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>213251.9497825338</v>
+        <v>243228.8485803317</v>
       </c>
     </row>
     <row r="5">
@@ -2470,28 +2470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.1416813060176</v>
+        <v>196.3622903327814</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.5318427177829</v>
+        <v>268.6715485260412</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.0530142198832</v>
+        <v>243.0299130176811</v>
       </c>
       <c r="AD5" t="n">
-        <v>172141.6813060176</v>
+        <v>196362.2903327814</v>
       </c>
       <c r="AE5" t="n">
-        <v>235531.8427177829</v>
+        <v>268671.5485260412</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.369384488214047e-06</v>
+        <v>8.084505271102123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.478125</v>
       </c>
       <c r="AH5" t="n">
-        <v>213053.0142198832</v>
+        <v>243029.913017681</v>
       </c>
     </row>
   </sheetData>
@@ -2767,28 +2767,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.2585307978388</v>
+        <v>410.5496671959904</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.4452770755728</v>
+        <v>561.7321668305788</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.4427804564517</v>
+        <v>508.1212372243154</v>
       </c>
       <c r="AD2" t="n">
-        <v>375258.5307978388</v>
+        <v>410549.6671959904</v>
       </c>
       <c r="AE2" t="n">
-        <v>513445.2770755728</v>
+        <v>561732.1668305788</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.781370807454805e-06</v>
+        <v>5.301722014637042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.652083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>464442.7804564517</v>
+        <v>508121.2372243154</v>
       </c>
     </row>
     <row r="3">
@@ -2873,28 +2873,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.7716037587836</v>
+        <v>188.2990280242177</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.4477774727885</v>
+        <v>257.6390373094426</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.9313580087934</v>
+        <v>233.0503291873645</v>
       </c>
       <c r="AD3" t="n">
-        <v>164771.6037587835</v>
+        <v>188299.0280242177</v>
       </c>
       <c r="AE3" t="n">
-        <v>225447.7774727885</v>
+        <v>257639.0373094426</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.383941431674152e-06</v>
+        <v>8.356468952967522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.585416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>203931.3580087934</v>
+        <v>233050.3291873645</v>
       </c>
     </row>
     <row r="4">
@@ -2979,28 +2979,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.1392625604707</v>
+        <v>187.6666868259049</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.5825803483325</v>
+        <v>256.7738401849867</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.1487340835835</v>
+        <v>232.2677052621545</v>
       </c>
       <c r="AD4" t="n">
-        <v>164139.2625604707</v>
+        <v>187666.6868259049</v>
       </c>
       <c r="AE4" t="n">
-        <v>224582.5803483325</v>
+        <v>256773.8401849867</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.406880572354192e-06</v>
+        <v>8.400194495356282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>203148.7340835835</v>
+        <v>232267.7052621545</v>
       </c>
     </row>
   </sheetData>
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.4373231656442</v>
+        <v>188.2789568020051</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.0951323684936</v>
+        <v>257.6115749777315</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.2306144723483</v>
+        <v>233.0254878220483</v>
       </c>
       <c r="AD2" t="n">
-        <v>167437.3231656442</v>
+        <v>188278.9568020051</v>
       </c>
       <c r="AE2" t="n">
-        <v>229095.1323684936</v>
+        <v>257611.5749777315</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.151218552367027e-06</v>
+        <v>8.841009130465822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.226041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>207230.6144723483</v>
+        <v>233025.4878220482</v>
       </c>
     </row>
     <row r="3">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.8825519180724</v>
+        <v>188.7241855544333</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.7043139896719</v>
+        <v>258.2207565989098</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.7816566545933</v>
+        <v>233.5765300042933</v>
       </c>
       <c r="AD3" t="n">
-        <v>167882.5519180724</v>
+        <v>188724.1855544333</v>
       </c>
       <c r="AE3" t="n">
-        <v>229704.3139896719</v>
+        <v>258220.7565989098</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.160143731194477e-06</v>
+        <v>8.8600174256228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.216666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>207781.6566545933</v>
+        <v>233576.5300042933</v>
       </c>
     </row>
   </sheetData>
@@ -3679,28 +3679,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.0312500377333</v>
+        <v>200.8895907841131</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.9584546028325</v>
+        <v>274.8660007339497</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.5799634969596</v>
+        <v>248.6331754008371</v>
       </c>
       <c r="AD2" t="n">
-        <v>179031.2500377333</v>
+        <v>200889.5907841131</v>
       </c>
       <c r="AE2" t="n">
-        <v>244958.4546028326</v>
+        <v>274866.0007339497</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.147585255184799e-06</v>
+        <v>8.42103201956976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.045833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>221579.9634969596</v>
+        <v>248633.1754008371</v>
       </c>
     </row>
     <row r="3">
@@ -3785,28 +3785,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.006300280048</v>
+        <v>177.9498923724483</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.4547025552908</v>
+        <v>243.4788933390572</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.0828853290315</v>
+        <v>220.2416094836212</v>
       </c>
       <c r="AD3" t="n">
-        <v>156006.300280048</v>
+        <v>177949.8923724483</v>
       </c>
       <c r="AE3" t="n">
-        <v>213454.7025552908</v>
+        <v>243478.8933390572</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345096986505698e-06</v>
+        <v>8.822049120210369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.862499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>193082.8853290315</v>
+        <v>220241.6094836212</v>
       </c>
     </row>
   </sheetData>
@@ -4082,28 +4082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.4872693804139</v>
+        <v>203.5413934168223</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.3729356843271</v>
+        <v>278.4943140852961</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.7183958576913</v>
+        <v>251.9152076183019</v>
       </c>
       <c r="AD2" t="n">
-        <v>173487.2693804139</v>
+        <v>203541.3934168223</v>
       </c>
       <c r="AE2" t="n">
-        <v>237372.9356843271</v>
+        <v>278494.3140852961</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.873797079389099e-06</v>
+        <v>8.62618945009957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>214718.3958576913</v>
+        <v>251915.2076183019</v>
       </c>
     </row>
     <row r="3">
@@ -4188,28 +4188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.3826523532335</v>
+        <v>204.4367763896419</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.5980381692472</v>
+        <v>279.7194165702161</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.8265762808931</v>
+        <v>253.0233880415037</v>
       </c>
       <c r="AD3" t="n">
-        <v>174382.6523532335</v>
+        <v>204436.7763896419</v>
       </c>
       <c r="AE3" t="n">
-        <v>238598.0381692472</v>
+        <v>279719.4165702161</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.880268274112897e-06</v>
+        <v>8.640599536769562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.694791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>215826.5762808931</v>
+        <v>253023.3880415037</v>
       </c>
     </row>
   </sheetData>
@@ -4485,28 +4485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.5082940099201</v>
+        <v>470.054733646675</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.5134170174143</v>
+        <v>643.1496239266614</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.7738909020929</v>
+        <v>581.7683264852666</v>
       </c>
       <c r="AD2" t="n">
-        <v>434508.2940099201</v>
+        <v>470054.733646675</v>
       </c>
       <c r="AE2" t="n">
-        <v>594513.4170174144</v>
+        <v>643149.6239266614</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.591870242345053e-06</v>
+        <v>4.900614088010671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>537773.8909020929</v>
+        <v>581768.3264852666</v>
       </c>
     </row>
     <row r="3">
@@ -4591,28 +4591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.5452169201655</v>
+        <v>194.2996775753489</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.3474897140233</v>
+        <v>265.8493907552707</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.0771328010429</v>
+        <v>240.4770980236287</v>
       </c>
       <c r="AD3" t="n">
-        <v>170545.2169201655</v>
+        <v>194299.6775753488</v>
       </c>
       <c r="AE3" t="n">
-        <v>233347.4897140232</v>
+        <v>265849.3907552707</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.323173757947265e-06</v>
+        <v>8.174099874670308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.603125</v>
       </c>
       <c r="AH3" t="n">
-        <v>211077.1328010429</v>
+        <v>240477.0980236287</v>
       </c>
     </row>
     <row r="4">
@@ -4697,28 +4697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.502094913582</v>
+        <v>190.2565555687654</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.8155118146642</v>
+        <v>260.3174128559117</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.0731191082173</v>
+        <v>235.4730843308031</v>
       </c>
       <c r="AD4" t="n">
-        <v>166502.094913582</v>
+        <v>190256.5555687654</v>
       </c>
       <c r="AE4" t="n">
-        <v>227815.5118146642</v>
+        <v>260317.4128559117</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.387783564334631e-06</v>
+        <v>8.296261749224297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.549999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>206073.1191082173</v>
+        <v>235473.0843308031</v>
       </c>
     </row>
     <row r="5">
@@ -4803,28 +4803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.5118895009925</v>
+        <v>190.2663501561759</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.828913201266</v>
+        <v>260.3308142425135</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.0852414852908</v>
+        <v>235.4852067078766</v>
       </c>
       <c r="AD5" t="n">
-        <v>166511.8895009925</v>
+        <v>190266.3501561759</v>
       </c>
       <c r="AE5" t="n">
-        <v>227828.913201266</v>
+        <v>260330.8142425135</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.399897903032262e-06</v>
+        <v>8.319167100703169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.540625</v>
       </c>
       <c r="AH5" t="n">
-        <v>206085.2414852908</v>
+        <v>235485.2067078766</v>
       </c>
     </row>
   </sheetData>
@@ -5100,28 +5100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.8944350171092</v>
+        <v>210.4937024952575</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.1901876583904</v>
+        <v>288.0067700806361</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.2625627310806</v>
+        <v>260.5198081642656</v>
       </c>
       <c r="AD2" t="n">
-        <v>190894.4350171092</v>
+        <v>210493.7024952575</v>
       </c>
       <c r="AE2" t="n">
-        <v>261190.1876583904</v>
+        <v>288006.7700806361</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.635754120775008e-06</v>
+        <v>8.335209001862923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.128125</v>
       </c>
       <c r="AH2" t="n">
-        <v>236262.5627310806</v>
+        <v>260519.8081642655</v>
       </c>
     </row>
   </sheetData>
@@ -5397,28 +5397,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.1832476179495</v>
+        <v>290.2837787633521</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.5212213979431</v>
+        <v>397.1790725205068</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.0679679874522</v>
+        <v>359.2728592834782</v>
       </c>
       <c r="AD2" t="n">
-        <v>256183.2476179495</v>
+        <v>290283.7787633521</v>
       </c>
       <c r="AE2" t="n">
-        <v>350521.2213979431</v>
+        <v>397179.0725205068</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.400558113675215e-06</v>
+        <v>6.665046907314112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.763541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>317067.9679874522</v>
+        <v>359272.8592834782</v>
       </c>
     </row>
     <row r="3">
@@ -5503,28 +5503,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.3509446001486</v>
+        <v>182.1415259334622</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.0309924693437</v>
+        <v>249.2140712990551</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.2224205565518</v>
+        <v>225.4294301084916</v>
       </c>
       <c r="AD3" t="n">
-        <v>159350.9446001486</v>
+        <v>182141.5259334623</v>
       </c>
       <c r="AE3" t="n">
-        <v>218030.9924693436</v>
+        <v>249214.0712990551</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.398646020930872e-06</v>
+        <v>8.621285412026013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.682291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>197222.4205565518</v>
+        <v>225429.4301084916</v>
       </c>
     </row>
     <row r="4">
@@ -5609,28 +5609,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.4384054068566</v>
+        <v>182.2289867401703</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.1506602035799</v>
+        <v>249.3337390332914</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.3306673701874</v>
+        <v>225.5376769221271</v>
       </c>
       <c r="AD4" t="n">
-        <v>159438.4054068566</v>
+        <v>182228.9867401703</v>
       </c>
       <c r="AE4" t="n">
-        <v>218150.6602035799</v>
+        <v>249333.7390332914</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.409841273980008e-06</v>
+        <v>8.643227953284661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.672916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>197330.6673701874</v>
+        <v>225537.6769221271</v>
       </c>
     </row>
   </sheetData>
@@ -5906,28 +5906,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.1131482613167</v>
+        <v>369.8801878587382</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.5165935998228</v>
+        <v>506.0863909905509</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.7564134387359</v>
+        <v>457.7862161311228</v>
       </c>
       <c r="AD2" t="n">
-        <v>335113.1482613166</v>
+        <v>369880.1878587382</v>
       </c>
       <c r="AE2" t="n">
-        <v>458516.5935998228</v>
+        <v>506086.3909905509</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.974916093208167e-06</v>
+        <v>5.719880338835421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.334375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>414756.4134387359</v>
+        <v>457786.2161311228</v>
       </c>
     </row>
     <row r="3">
@@ -6012,28 +6012,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.055282552827</v>
+        <v>185.3470370848358</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.7311869631666</v>
+        <v>253.5999930735335</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.5694736811411</v>
+        <v>229.3967656644951</v>
       </c>
       <c r="AD3" t="n">
-        <v>162055.282552827</v>
+        <v>185347.0370848358</v>
       </c>
       <c r="AE3" t="n">
-        <v>221731.1869631666</v>
+        <v>253599.9930735335</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.40531949358362e-06</v>
+        <v>8.470121364150409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.602083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>200569.4736811411</v>
+        <v>229396.7656644951</v>
       </c>
     </row>
     <row r="4">
@@ -6118,28 +6118,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.5428144140132</v>
+        <v>185.834568946022</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.3982495640289</v>
+        <v>254.2670556743959</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.1728727636056</v>
+        <v>230.0001647469595</v>
       </c>
       <c r="AD4" t="n">
-        <v>162542.8144140132</v>
+        <v>185834.568946022</v>
       </c>
       <c r="AE4" t="n">
-        <v>222398.2495640289</v>
+        <v>254267.0556743959</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.406233586714118e-06</v>
+        <v>8.471878893828957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.602083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>201172.8727636056</v>
+        <v>230000.1647469595</v>
       </c>
     </row>
   </sheetData>
@@ -6415,28 +6415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>550.2200487644468</v>
+        <v>598.5061296673534</v>
       </c>
       <c r="AB2" t="n">
-        <v>752.8353447148958</v>
+        <v>818.9024908377977</v>
       </c>
       <c r="AC2" t="n">
-        <v>680.9857960263479</v>
+        <v>740.7475864491021</v>
       </c>
       <c r="AD2" t="n">
-        <v>550220.0487644468</v>
+        <v>598506.1296673535</v>
       </c>
       <c r="AE2" t="n">
-        <v>752835.3447148958</v>
+        <v>818902.4908377978</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.247963024406434e-06</v>
+        <v>4.18778461451197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.813541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>680985.7960263479</v>
+        <v>740747.586449102</v>
       </c>
     </row>
     <row r="3">
@@ -6521,28 +6521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.7793150067566</v>
+        <v>217.9650258854954</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.1374077321469</v>
+        <v>298.2293643546797</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.8330656609571</v>
+        <v>269.7667723882987</v>
       </c>
       <c r="AD3" t="n">
-        <v>193779.3150067566</v>
+        <v>217965.0258854954</v>
       </c>
       <c r="AE3" t="n">
-        <v>265137.4077321469</v>
+        <v>298229.3643546797</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.063303086962685e-06</v>
+        <v>7.56962546400175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.769791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>239833.0656609571</v>
+        <v>269766.7723882987</v>
       </c>
     </row>
     <row r="4">
@@ -6627,28 +6627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.748711366728</v>
+        <v>193.7638300448746</v>
       </c>
       <c r="AB4" t="n">
-        <v>232.2576756764656</v>
+        <v>265.1162205241515</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.0913290856659</v>
+        <v>239.8139005303564</v>
       </c>
       <c r="AD4" t="n">
-        <v>169748.711366728</v>
+        <v>193763.8300448746</v>
       </c>
       <c r="AE4" t="n">
-        <v>232257.6756764656</v>
+        <v>265116.2205241515</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.382402960251229e-06</v>
+        <v>8.164084325353944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.494791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>210091.3290856659</v>
+        <v>239813.9005303564</v>
       </c>
     </row>
     <row r="5">
@@ -6733,28 +6733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.572777830116</v>
+        <v>193.5878965082626</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.0169556500333</v>
+        <v>264.8755004977193</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.8735830407036</v>
+        <v>239.5961544853941</v>
       </c>
       <c r="AD5" t="n">
-        <v>169572.777830116</v>
+        <v>193587.8965082626</v>
       </c>
       <c r="AE5" t="n">
-        <v>232016.9556500333</v>
+        <v>264875.5004977193</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.395343415942193e-06</v>
+        <v>8.188191412818916e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.485416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>209873.5830407036</v>
+        <v>239596.1544853941</v>
       </c>
     </row>
   </sheetData>
@@ -7030,28 +7030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.25592506808</v>
+        <v>221.4116407002772</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.6307472290296</v>
+        <v>302.9451747981759</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.6112513532278</v>
+        <v>274.0325125017508</v>
       </c>
       <c r="AD2" t="n">
-        <v>199255.92506808</v>
+        <v>221411.6407002772</v>
       </c>
       <c r="AE2" t="n">
-        <v>272630.7472290295</v>
+        <v>302945.1747981759</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.917340825584753e-06</v>
+        <v>7.852299323378538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.230208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>246611.2513532278</v>
+        <v>274032.5125017508</v>
       </c>
     </row>
     <row r="3">
@@ -7136,28 +7136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.0596848616759</v>
+        <v>179.3006518398936</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.8959898119213</v>
+        <v>245.3270620337169</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.386618152749</v>
+        <v>221.9133915519842</v>
       </c>
       <c r="AD3" t="n">
-        <v>157059.6848616759</v>
+        <v>179300.6518398937</v>
       </c>
       <c r="AE3" t="n">
-        <v>214895.9898119213</v>
+        <v>245327.0620337169</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.367555028655125e-06</v>
+        <v>8.754752502600486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.793750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>194386.618152749</v>
+        <v>221913.3915519842</v>
       </c>
     </row>
     <row r="4">
@@ -7242,28 +7242,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.2659899512444</v>
+        <v>179.5069569294622</v>
       </c>
       <c r="AB4" t="n">
-        <v>215.1782655370071</v>
+        <v>245.6093377588027</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.6419538788091</v>
+        <v>222.1687272780444</v>
       </c>
       <c r="AD4" t="n">
-        <v>157265.9899512444</v>
+        <v>179506.9569294622</v>
       </c>
       <c r="AE4" t="n">
-        <v>215178.2655370071</v>
+        <v>245609.3377588027</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.37773655126873e-06</v>
+        <v>8.775161337748967e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.785416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>194641.9538788091</v>
+        <v>222168.7272780444</v>
       </c>
     </row>
   </sheetData>
@@ -7539,28 +7539,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.9944236508335</v>
+        <v>188.1996703185567</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.4891377129824</v>
+        <v>257.5030917132048</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.6824550962401</v>
+        <v>232.9273580480307</v>
       </c>
       <c r="AD2" t="n">
-        <v>166994.4236508335</v>
+        <v>188199.6703185567</v>
       </c>
       <c r="AE2" t="n">
-        <v>228489.1377129824</v>
+        <v>257503.0917132048</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.228222816864185e-06</v>
+        <v>8.845706557127185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.082291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>206682.4550962401</v>
+        <v>232927.3580480307</v>
       </c>
     </row>
     <row r="3">
@@ -7645,28 +7645,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.7562086044788</v>
+        <v>187.9614552722021</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.1632013772539</v>
+        <v>257.1771553774764</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.3876256669389</v>
+        <v>232.6325286187296</v>
       </c>
       <c r="AD3" t="n">
-        <v>166756.2086044788</v>
+        <v>187961.4552722021</v>
       </c>
       <c r="AE3" t="n">
-        <v>228163.2013772539</v>
+        <v>257177.1553774764</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.246948632200484e-06</v>
+        <v>8.884882133884206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.064583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>206387.6256669389</v>
+        <v>232632.5286187296</v>
       </c>
     </row>
   </sheetData>
@@ -13067,28 +13067,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.7968130102498</v>
+        <v>190.2423320700169</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.3234904672269</v>
+        <v>260.2979516374276</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.1508626051686</v>
+        <v>235.4554804636971</v>
       </c>
       <c r="AD2" t="n">
-        <v>169796.8130102498</v>
+        <v>190242.3320700169</v>
       </c>
       <c r="AE2" t="n">
-        <v>232323.4904672269</v>
+        <v>260297.9516374276</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.031566658900652e-06</v>
+        <v>8.764044443013579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.429166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>210150.8626051685</v>
+        <v>235455.4804636971</v>
       </c>
     </row>
     <row r="3">
@@ -13173,28 +13173,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.4187425964871</v>
+        <v>190.8642616562542</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.1744419647132</v>
+        <v>261.148903134914</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.920600486053</v>
+        <v>236.2252183445816</v>
       </c>
       <c r="AD3" t="n">
-        <v>170418.7425964871</v>
+        <v>190864.2616562542</v>
       </c>
       <c r="AE3" t="n">
-        <v>233174.4419647132</v>
+        <v>261148.903134914</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.039280771480401e-06</v>
+        <v>8.780813811154391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.420833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>210920.600486053</v>
+        <v>236225.2183445816</v>
       </c>
     </row>
   </sheetData>
@@ -13470,28 +13470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.7642386759908</v>
+        <v>234.3013706991121</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.5357090339006</v>
+        <v>320.5814720373269</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.6663361016373</v>
+        <v>289.9856262851015</v>
       </c>
       <c r="AD2" t="n">
-        <v>205764.2386759908</v>
+        <v>234301.3706991121</v>
       </c>
       <c r="AE2" t="n">
-        <v>281535.7090339006</v>
+        <v>320581.472037327</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.263264770624827e-06</v>
+        <v>7.761763246046067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.872916666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>254666.3361016373</v>
+        <v>289985.6262851015</v>
       </c>
     </row>
   </sheetData>
@@ -13767,28 +13767,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.6191624610009</v>
+        <v>322.6657645718591</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.952156343692</v>
+        <v>441.4855340960951</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.8268979137143</v>
+        <v>399.3507743508017</v>
       </c>
       <c r="AD2" t="n">
-        <v>299619.162461001</v>
+        <v>322665.7645718592</v>
       </c>
       <c r="AE2" t="n">
-        <v>409952.156343692</v>
+        <v>441485.5340960951</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.180487419974828e-06</v>
+        <v>6.171984536637968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.039583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>370826.8979137143</v>
+        <v>399350.7743508017</v>
       </c>
     </row>
     <row r="3">
@@ -13873,28 +13873,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.6854175557211</v>
+        <v>183.731930158028</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.8568772399488</v>
+        <v>251.3901325227873</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.8740454472964</v>
+        <v>227.3978111031526</v>
       </c>
       <c r="AD3" t="n">
-        <v>160685.4175557211</v>
+        <v>183731.9301580279</v>
       </c>
       <c r="AE3" t="n">
-        <v>219856.8772399488</v>
+        <v>251390.1325227873</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.402674724128677e-06</v>
+        <v>8.543734569270544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>198874.0454472964</v>
+        <v>227397.8111031526</v>
       </c>
     </row>
     <row r="4">
@@ -13979,28 +13979,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.6699063267855</v>
+        <v>183.7164189290923</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.835654092212</v>
+        <v>251.3689093750504</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.8548478069926</v>
+        <v>227.3786134628488</v>
       </c>
       <c r="AD4" t="n">
-        <v>160669.9063267855</v>
+        <v>183716.4189290923</v>
       </c>
       <c r="AE4" t="n">
-        <v>219835.654092212</v>
+        <v>251368.9093750504</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.414368823979576e-06</v>
+        <v>8.566427884451218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.63125</v>
       </c>
       <c r="AH4" t="n">
-        <v>198854.8478069926</v>
+        <v>227378.6134628488</v>
       </c>
     </row>
   </sheetData>
@@ -14276,28 +14276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.5706453289198</v>
+        <v>523.4458860952726</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.1156670377941</v>
+        <v>716.2017541582392</v>
       </c>
       <c r="AC2" t="n">
-        <v>603.4470840784256</v>
+        <v>647.8484639368512</v>
       </c>
       <c r="AD2" t="n">
-        <v>487570.6453289198</v>
+        <v>523445.8860952726</v>
       </c>
       <c r="AE2" t="n">
-        <v>667115.6670377941</v>
+        <v>716201.7541582391</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417010772436915e-06</v>
+        <v>4.535260231400362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.389583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>603447.0840784257</v>
+        <v>647848.4639368512</v>
       </c>
     </row>
     <row r="3">
@@ -14382,28 +14382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.0108852254272</v>
+        <v>204.9845466336758</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.6670788019747</v>
+        <v>280.4688999840205</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.0300804041144</v>
+        <v>253.7013418102015</v>
       </c>
       <c r="AD3" t="n">
-        <v>181010.8852254272</v>
+        <v>204984.5466336758</v>
       </c>
       <c r="AE3" t="n">
-        <v>247667.0788019747</v>
+        <v>280468.8999840206</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.201189082033468e-06</v>
+        <v>7.883078547113542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.676041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>224030.0804041144</v>
+        <v>253701.3418102015</v>
       </c>
     </row>
     <row r="4">
@@ -14488,28 +14488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.8493275524571</v>
+        <v>192.8229889607057</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.0270990637672</v>
+        <v>263.8289202458132</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.978196977758</v>
+        <v>238.649458383845</v>
       </c>
       <c r="AD4" t="n">
-        <v>168849.3275524571</v>
+        <v>192822.9889607058</v>
       </c>
       <c r="AE4" t="n">
-        <v>231027.0990637672</v>
+        <v>263828.9202458132</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.373186658625505e-06</v>
+        <v>8.205813463279691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>208978.196977758</v>
+        <v>238649.458383845</v>
       </c>
     </row>
     <row r="5">
@@ -14594,28 +14594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.8233502079631</v>
+        <v>192.7970116162117</v>
       </c>
       <c r="AB5" t="n">
-        <v>230.991555714991</v>
+        <v>263.7933768970369</v>
       </c>
       <c r="AC5" t="n">
-        <v>208.9460458363035</v>
+        <v>238.6173072423906</v>
       </c>
       <c r="AD5" t="n">
-        <v>168823.3502079631</v>
+        <v>192797.0116162117</v>
       </c>
       <c r="AE5" t="n">
-        <v>230991.555714991</v>
+        <v>263793.3768970369</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.385493381778212e-06</v>
+        <v>8.22890570297089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.521875</v>
       </c>
       <c r="AH5" t="n">
-        <v>208946.0458363035</v>
+        <v>238617.3072423906</v>
       </c>
     </row>
   </sheetData>
@@ -14891,28 +14891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.3616893563387</v>
+        <v>292.8318690086833</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.765373256701</v>
+        <v>400.6654820079769</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.2888183354795</v>
+        <v>362.4265307426706</v>
       </c>
       <c r="AD2" t="n">
-        <v>256361.6893563387</v>
+        <v>292831.8690086833</v>
       </c>
       <c r="AE2" t="n">
-        <v>350765.373256701</v>
+        <v>400665.4820079769</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.663513106826912e-06</v>
+        <v>6.661244147411845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.451041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>317288.8183354795</v>
+        <v>362426.5307426706</v>
       </c>
     </row>
   </sheetData>
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.6413979655576</v>
+        <v>189.9125571794426</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.6919153440227</v>
+        <v>259.8467390835027</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.1065816691554</v>
+        <v>235.0473310026379</v>
       </c>
       <c r="AD2" t="n">
-        <v>157641.3979655576</v>
+        <v>189912.5571794426</v>
       </c>
       <c r="AE2" t="n">
-        <v>215691.9153440227</v>
+        <v>259846.7390835027</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.259347239986434e-06</v>
+        <v>8.77120331368959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.99375</v>
       </c>
       <c r="AH2" t="n">
-        <v>195106.5816691555</v>
+        <v>235047.3310026379</v>
       </c>
     </row>
     <row r="3">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.7035072008536</v>
+        <v>177.3314011495391</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.0404077060494</v>
+        <v>242.6326463619662</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.7081301987351</v>
+        <v>219.4761271303084</v>
       </c>
       <c r="AD3" t="n">
-        <v>155703.5072008536</v>
+        <v>177331.4011495392</v>
       </c>
       <c r="AE3" t="n">
-        <v>213040.4077060494</v>
+        <v>242632.6463619662</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.305724367470088e-06</v>
+        <v>8.866706965151762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.951041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>192708.1301987351</v>
+        <v>219476.1271303084</v>
       </c>
     </row>
   </sheetData>
@@ -15591,28 +15591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.0955481590443</v>
+        <v>248.5329114705706</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.3539036226712</v>
+        <v>340.0536939720939</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.8296012419456</v>
+        <v>307.5994466878556</v>
       </c>
       <c r="AD2" t="n">
-        <v>226095.5481590444</v>
+        <v>248532.9114705706</v>
       </c>
       <c r="AE2" t="n">
-        <v>309353.9036226711</v>
+        <v>340053.6939720939</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.650081082490501e-06</v>
+        <v>7.231482647349245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.486458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>279829.6012419456</v>
+        <v>307599.4466878556</v>
       </c>
     </row>
     <row r="3">
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.3194228453344</v>
+        <v>180.8420375028812</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.6196188968796</v>
+        <v>247.4360538989516</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.945746496968</v>
+        <v>223.8211041935903</v>
       </c>
       <c r="AD3" t="n">
-        <v>158319.4228453344</v>
+        <v>180842.0375028812</v>
       </c>
       <c r="AE3" t="n">
-        <v>216619.6188968795</v>
+        <v>247436.0538989516</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.382895862189339e-06</v>
+        <v>8.683323645768215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.736458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>195945.746496968</v>
+        <v>223821.1041935903</v>
       </c>
     </row>
     <row r="4">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.4526812979119</v>
+        <v>180.9752959554586</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.8019489906439</v>
+        <v>247.618383992716</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.1106752624854</v>
+        <v>223.9860329591077</v>
       </c>
       <c r="AD4" t="n">
-        <v>158452.6812979119</v>
+        <v>180975.2959554587</v>
       </c>
       <c r="AE4" t="n">
-        <v>216801.9489906439</v>
+        <v>247618.383992716</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.393587002506765e-06</v>
+        <v>8.70450476310194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.727083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>196110.6752624855</v>
+        <v>223986.0329591077</v>
       </c>
     </row>
   </sheetData>
